--- a/src/main/resources/DATA.xlsx
+++ b/src/main/resources/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18650" windowHeight="7070"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>desc</t>
   </si>
@@ -42,7 +42,7 @@
     <t>yaomeng@bitnei.cn&gt;&gt;123</t>
   </si>
   <si>
-    <t>/html/body/app-root/layout-passport/div/div/passport-login/div/form/nz-alert/div/span</t>
+    <t>/html/body/app-root/layout-passport/passport-login/div/div/div/form/nz-alert/div/span</t>
   </si>
   <si>
     <t>用户名或密码错误</t>
@@ -69,7 +69,7 @@
     <t>/html/body/app/changan-layout/div/header/nav/div[1]/a[2]</t>
   </si>
   <si>
-    <t>智能网联汽车大数据云平台</t>
+    <t>新能源汽车大数据平台</t>
   </si>
   <si>
     <t>查询结果正常</t>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>{"status":400,"errorMsg":"VALID","data":"参数 from  不符合规则：yyyy-MM-dd HH:mm:ss","error":true}</t>
+  </si>
+  <si>
+    <t>hangang@bitnei.cn&gt;&gt;abcd1234</t>
   </si>
 </sst>
 </file>
@@ -98,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -130,7 +133,126 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,125 +265,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -272,6 +275,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -284,175 +305,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +466,59 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,15 +533,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,39 +552,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -552,164 +566,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,17 +1050,17 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="15.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="33.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="31.2727272727273" customWidth="1"/>
-    <col min="5" max="5" width="50.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="24.6388888888889" customWidth="1"/>
+    <col min="2" max="2" width="15.9074074074074" customWidth="1"/>
+    <col min="3" max="3" width="33.1851851851852" customWidth="1"/>
+    <col min="4" max="4" width="92.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="50.7314814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1164,12 +1167,12 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="37.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="45.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="52.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="19.0925925925926" customWidth="1"/>
+    <col min="2" max="2" width="37.0925925925926" customWidth="1"/>
+    <col min="3" max="3" width="45.1851851851852" customWidth="1"/>
+    <col min="4" max="4" width="52.9074074074074" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1225,17 +1228,17 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="23.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="35.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="57.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="24.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="15.6388888888889" customWidth="1"/>
+    <col min="2" max="2" width="23.1851851851852" customWidth="1"/>
+    <col min="3" max="3" width="35.5462962962963" customWidth="1"/>
+    <col min="4" max="4" width="57.7314814814815" customWidth="1"/>
+    <col min="5" max="5" width="24.8148148148148" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1263,7 +1266,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
@@ -1274,7 +1277,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="zhanghailong@bitnei.cn&gt;&gt;abc123" tooltip="mailto:zhanghailong@bitnei.cn&gt;&gt;abc123"/>
+    <hyperlink ref="C2" r:id="rId1" display="hangang@bitnei.cn&gt;&gt;abcd1234" tooltip="mailto:hangang@bitnei.cn&gt;&gt;abcd1234"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/DATA.xlsx
+++ b/src/main/resources/DATA.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="userrole" sheetId="3" r:id="rId3"/>
+    <sheet name="backsaas" sheetId="4" r:id="rId4"/>
+    <sheet name="interface" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
   <si>
     <t>desc</t>
   </si>
@@ -94,6 +96,45 @@
   </si>
   <si>
     <t>hangang@bitnei.cn&gt;&gt;abcd1234</t>
+  </si>
+  <si>
+    <t>SaaS@bitnei.cn&gt;&gt;123</t>
+  </si>
+  <si>
+    <t>/html/body/app-root/layout-passport/div/div/passport-login/div/form/nz-alert/div/span</t>
+  </si>
+  <si>
+    <t>hangang@bitnei.cn不是超级租户的管理员</t>
+  </si>
+  <si>
+    <t>hangang@bitnei.cn&gt;&gt;123</t>
+  </si>
+  <si>
+    <t>SaaS@bitnei.cn&gt;&gt;abcd1234</t>
+  </si>
+  <si>
+    <t>/html/body/app-root/app-sass/div/header/nav/div[1]/a[2]</t>
+  </si>
+  <si>
+    <t>新能源汽车大数据平台后台</t>
+  </si>
+  <si>
+    <t>接口信息</t>
+  </si>
+  <si>
+    <t>/html/body/app-root/app-sass/div/div/div[2]/ng-component/div/div/div[2]/ng-component/div/div[2]/span[1]</t>
+  </si>
+  <si>
+    <t>基本信息</t>
+  </si>
+  <si>
+    <t>接口字段接口类型验证</t>
+  </si>
+  <si>
+    <t>/html/body/app-root/app-sass/div/div/div[2]/ng-component/div/div/div[2]/ng-component/div/div[3]/form/nz-form-item[1]/nz-form-label/label</t>
+  </si>
+  <si>
+    <t>接口类型</t>
   </si>
 </sst>
 </file>
@@ -101,10 +142,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -117,63 +158,54 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,13 +218,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -209,28 +272,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,24 +301,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -275,19 +316,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +400,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,151 +472,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,59 +521,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,153 +559,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -720,10 +761,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1051,7 +1092,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A1" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1087,10 +1128,10 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
@@ -1104,10 +1145,10 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
@@ -1121,10 +1162,10 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
@@ -1138,10 +1179,10 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
@@ -1193,7 +1234,7 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1207,7 +1248,7 @@
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
@@ -1228,7 +1269,7 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1265,10 +1306,10 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
@@ -1282,4 +1323,208 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="38.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="22.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="36.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="90.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="39.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="SaaS@bitnei.cn&gt;&gt;123" tooltip="mailto:SaaS@bitnei.cn&gt;&gt;123"/>
+    <hyperlink ref="C6" r:id="rId2" display="SaaS@bitnei.cn&gt;&gt;abcd1234" tooltip="mailto:SaaS@bitnei.cn&gt;&gt;abcd1234"/>
+    <hyperlink ref="A5" r:id="rId3" display="hangang@bitnei.cn不是超级租户的管理员" tooltip="mailto:hangang@bitnei.cn不是超级租户的管理员"/>
+    <hyperlink ref="C5" r:id="rId4" display="hangang@bitnei.cn&gt;&gt;123"/>
+    <hyperlink ref="E5" r:id="rId3" display="hangang@bitnei.cn不是超级租户的管理员"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="7.77777777777778" customWidth="1"/>
+    <col min="4" max="4" width="108.888888888889" customWidth="1"/>
+    <col min="5" max="5" width="36.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/DATA.xlsx
+++ b/src/main/resources/DATA.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="66">
   <si>
     <t>desc</t>
   </si>
@@ -135,6 +135,87 @@
   </si>
   <si>
     <t>接口类型</t>
+  </si>
+  <si>
+    <t>接口字段所属项目验证</t>
+  </si>
+  <si>
+    <t>/html/body/app-root/app-sass/div/div/div[2]/ng-component/div/div/div[2]/ng-component/div/div[3]/form/nz-form-item[2]/nz-form-label/label</t>
+  </si>
+  <si>
+    <t>所属项目</t>
+  </si>
+  <si>
+    <t>接口字段所属模块验证</t>
+  </si>
+  <si>
+    <t>/html/body/app-root/app-sass/div/div/div[2]/ng-component/div/div/div[2]/ng-component/div/div[3]/form/nz-form-item[3]/nz-form-label/label</t>
+  </si>
+  <si>
+    <t>所属模块</t>
+  </si>
+  <si>
+    <t>接口字段接口名称验证</t>
+  </si>
+  <si>
+    <t>/html/body/app-root/app-sass/div/div/div[2]/ng-component/div/div/div[2]/ng-component/div/div[3]/form/nz-form-item[4]/nz-form-label/label</t>
+  </si>
+  <si>
+    <t>接口名称</t>
+  </si>
+  <si>
+    <t>接口字段请求方式验证</t>
+  </si>
+  <si>
+    <t>/html/body/app-root/app-sass/div/div/div[2]/ng-component/div/div/div[2]/ng-component/div/div[3]/form/nz-form-item[5]/nz-form-label/label</t>
+  </si>
+  <si>
+    <t>请求方式</t>
+  </si>
+  <si>
+    <t>接口字段请求协议验证</t>
+  </si>
+  <si>
+    <t>/html/body/app-root/app-sass/div/div/div[2]/ng-component/div/div/div[2]/ng-component/div/div[3]/form/nz-form-item[6]/nz-form-label/label</t>
+  </si>
+  <si>
+    <t>请求协议</t>
+  </si>
+  <si>
+    <t>接口字段请求URL验证</t>
+  </si>
+  <si>
+    <t>/html/body/app-root/app-sass/div/div/div[2]/ng-component/div/div/div[2]/ng-component/div/div[3]/form/nz-form-item[7]/nz-form-label/label</t>
+  </si>
+  <si>
+    <t>请求URL</t>
+  </si>
+  <si>
+    <t>接口字段请求格式验证</t>
+  </si>
+  <si>
+    <t>/html/body/app-root/app-sass/div/div/div[2]/ng-component/div/div/div[2]/ng-component/div/div[3]/form/nz-form-item[8]/nz-form-label/label</t>
+  </si>
+  <si>
+    <t>请求格式</t>
+  </si>
+  <si>
+    <t>接口字段响应格式验证</t>
+  </si>
+  <si>
+    <t>/html/body/app-root/app-sass/div/div/div[2]/ng-component/div/div/div[2]/ng-component/div/div[3]/form/nz-form-item[9]/nz-form-label/label</t>
+  </si>
+  <si>
+    <t>响应格式</t>
+  </si>
+  <si>
+    <t>接口字段说明信息验证</t>
+  </si>
+  <si>
+    <t>/html/body/app-root/app-sass/div/div/div[2]/ng-component/div/div/div[2]/ng-component/div/div[3]/form/nz-form-item[10]/nz-form-label/label</t>
+  </si>
+  <si>
+    <t>说明信息</t>
   </si>
 </sst>
 </file>
@@ -142,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -186,6 +267,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -194,8 +327,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,103 +381,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -316,37 +397,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,43 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,25 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,61 +559,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,26 +588,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -575,6 +636,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -601,9 +680,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,145 +696,145 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1461,19 +1542,19 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="7.77777777777778" customWidth="1"/>
-    <col min="4" max="4" width="108.888888888889" customWidth="1"/>
-    <col min="5" max="5" width="36.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="22.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="16.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="6.77777777777778" customWidth="1"/>
+    <col min="4" max="4" width="136.777777777778" customWidth="1"/>
+    <col min="5" max="5" width="15.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1523,6 +1604,141 @@
         <v>38</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
